--- a/sputnik/personal/ee/129ee.xlsx
+++ b/sputnik/personal/ee/129ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -43,16 +34,28 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,16 +79,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -99,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -129,19 +123,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -154,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -167,7 +148,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -177,30 +158,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -263,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,10 +261,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,7 +295,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -506,385 +470,176 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51.75" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="4">
-        <v>43225</v>
+        <v>43459</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>29622</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>31649</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>14361</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43267</v>
+      <c r="C3" s="3">
+        <v>15250</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="14">
+        <v>43509</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>29737</v>
+        <v>33242</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D13" si="0">C4-C2</f>
-        <v>115</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4.29</v>
+        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
+        <v>1593</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4.5</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>493.35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D4*E4</f>
+        <v>7168.5</v>
+      </c>
+      <c r="G4" s="13">
+        <f>SUM(F4,F5)</f>
+        <v>8987.4</v>
+      </c>
+      <c r="H4" s="13">
+        <v>8987.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>14409</v>
+        <v>16024</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>774</v>
       </c>
       <c r="E5" s="3">
-        <v>2.17</v>
+        <v>2.35</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>104.16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43309</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>30078</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>341</v>
-      </c>
-      <c r="E6" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>1534.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>14516</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>107</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>251.45000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43337</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>30265</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>187</v>
-      </c>
-      <c r="E8" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>841.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>14570</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>126.9</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43459</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>31649</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>1384</v>
-      </c>
-      <c r="E10" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F10" s="6">
-        <f>D10*E10</f>
-        <v>6228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>15250</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>680</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F11" s="6">
-        <f>D11*E11</f>
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
-        <v>43509</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>33242</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="0"/>
-        <v>1593</v>
-      </c>
-      <c r="E12" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="F12" s="6">
-        <f>D12*E12</f>
-        <v>7168.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>16024</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>774</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.35</v>
-      </c>
-      <c r="F13" s="6">
-        <f>D13*E13</f>
+        <f>D5*E5</f>
         <v>1818.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="9"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -894,12 +649,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -908,12 +663,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/129ee.xlsx
+++ b/sputnik/personal/ee/129ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -51,11 +51,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,9 +261,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,6 +296,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -470,7 +472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -480,7 +482,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" customWidth="1"/>
@@ -494,7 +496,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51.75" customHeight="1">
+    <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -520,7 +522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43459</v>
       </c>
@@ -536,7 +538,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -550,7 +552,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>43509</v>
       </c>
@@ -579,7 +581,7 @@
         <v>8987.4</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -601,7 +603,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -611,7 +613,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -621,7 +623,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -631,7 +633,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1">
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -649,12 +651,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -663,12 +665,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/129ee.xlsx
+++ b/sputnik/personal/ee/129ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -479,7 +479,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -604,22 +604,53 @@
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="A6" s="14">
+        <v>44018</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>39690</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" ref="D6:D7" si="1">C6-C4</f>
+        <v>6448</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="6">
+        <f>D6*E6</f>
+        <v>30370.079999999998</v>
+      </c>
+      <c r="G6" s="13">
+        <f>SUM(F6,F7)</f>
+        <v>38300.579999999994</v>
+      </c>
+      <c r="H6" s="13">
+        <v>38300.58</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>19134</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>3110</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F7" s="6">
+        <f>D7*E7</f>
+        <v>7930.4999999999991</v>
+      </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>

--- a/sputnik/personal/ee/129ee.xlsx
+++ b/sputnik/personal/ee/129ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -93,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,26 +116,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -155,14 +140,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -479,7 +456,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -553,7 +530,7 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="10">
         <v>43509</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -573,11 +550,11 @@
         <f>D4*E4</f>
         <v>7168.5</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="9">
         <f>SUM(F4,F5)</f>
         <v>8987.4</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="9">
         <v>8987.4</v>
       </c>
     </row>
@@ -600,11 +577,11 @@
         <f>D5*E5</f>
         <v>1818.9</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="10">
         <v>44018</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -624,11 +601,11 @@
         <f>D6*E6</f>
         <v>30370.079999999998</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="9">
         <f>SUM(F6,F7)</f>
         <v>38300.579999999994</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="9">
         <v>38300.58</v>
       </c>
     </row>
@@ -651,28 +628,59 @@
         <f>D7*E7</f>
         <v>7930.4999999999991</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="A8" s="10">
+        <v>44075</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>39690</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:D9" si="2">C8-C6</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="6">
+        <f>D8*E8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <f>SUM(F8,F9)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>2120.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>19134</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="6">
+        <f>D9*E9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/129ee.xlsx
+++ b/sputnik/personal/ee/129ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -453,10 +453,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H10" sqref="H8:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -547,7 +547,7 @@
         <v>4.5</v>
       </c>
       <c r="F4" s="6">
-        <f>D4*E4</f>
+        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
         <v>7168.5</v>
       </c>
       <c r="G4" s="9">
@@ -574,7 +574,7 @@
         <v>2.35</v>
       </c>
       <c r="F5" s="6">
-        <f>D5*E5</f>
+        <f t="shared" si="1"/>
         <v>1818.9</v>
       </c>
       <c r="G5" s="9"/>
@@ -591,14 +591,14 @@
         <v>39690</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:D7" si="1">C6-C4</f>
+        <f t="shared" ref="D6:D7" si="2">C6-C4</f>
         <v>6448</v>
       </c>
       <c r="E6" s="8">
         <v>4.71</v>
       </c>
       <c r="F6" s="6">
-        <f>D6*E6</f>
+        <f t="shared" si="1"/>
         <v>30370.079999999998</v>
       </c>
       <c r="G6" s="9">
@@ -618,14 +618,14 @@
         <v>19134</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3110</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="6">
-        <f>D7*E7</f>
+        <f t="shared" si="1"/>
         <v>7930.4999999999991</v>
       </c>
       <c r="G7" s="9"/>
@@ -642,14 +642,14 @@
         <v>39690</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:D9" si="2">C8-C6</f>
+        <f t="shared" ref="D8:D9" si="3">C8-C6</f>
         <v>0</v>
       </c>
       <c r="E8" s="8">
         <v>4.71</v>
       </c>
       <c r="F8" s="6">
-        <f>D8*E8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G8" s="9">
@@ -669,18 +669,69 @@
         <v>19134</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="6">
-        <f>D9*E9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>44075</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>40363</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D11" si="4">C10-C8</f>
+        <v>673</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" ref="F10:F11" si="5">D10*E10</f>
+        <v>3169.83</v>
+      </c>
+      <c r="G10" s="9">
+        <f>SUM(F10,F11)</f>
+        <v>4141.38</v>
+      </c>
+      <c r="H10" s="9">
+        <v>2021.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>19515</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="4"/>
+        <v>381</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="5"/>
+        <v>971.55</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/129ee.xlsx
+++ b/sputnik/personal/ee/129ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -85,12 +85,30 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -120,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -146,6 +164,9 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -453,10 +474,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H8:H10"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -656,7 +677,7 @@
         <f>SUM(F8,F9)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="11">
         <v>2120.25</v>
       </c>
     </row>
@@ -680,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
@@ -693,21 +714,21 @@
         <v>40363</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D11" si="4">C10-C8</f>
+        <f>C10-C8</f>
         <v>673</v>
       </c>
       <c r="E10" s="8">
         <v>4.71</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" ref="F10:F11" si="5">D10*E10</f>
+        <f t="shared" ref="F10:F11" si="4">D10*E10</f>
         <v>3169.83</v>
       </c>
       <c r="G10" s="9">
         <f>SUM(F10,F11)</f>
         <v>4141.38</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="11">
         <v>2021.13</v>
       </c>
     </row>
@@ -720,18 +741,222 @@
         <v>19515</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="4"/>
+        <f>C11-C9</f>
         <v>381</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>971.55</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44109</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>40363</v>
+      </c>
+      <c r="D12" s="3">
+        <f>C12-C10</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" ref="F12:F13" si="5">D12*E12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <f>SUM(F12,F13)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>2021.13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>19515</v>
+      </c>
+      <c r="D13" s="3">
+        <f>C13-C11</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>44172</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>40363</v>
+      </c>
+      <c r="D14" s="3">
+        <f>C14-C10</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" ref="F14:F15" si="6">D14*E14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <f>SUM(F14,F15)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
+        <v>2120.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>19515</v>
+      </c>
+      <c r="D15" s="3">
+        <f>C15-C11</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>44172</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>41600</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="7">C16-C14</f>
+        <v>1237</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" ref="F16:F17" si="8">D16*E16</f>
+        <v>5826.2699999999995</v>
+      </c>
+      <c r="G16" s="9">
+        <f>SUM(F16,F17)</f>
+        <v>7522.0199999999995</v>
+      </c>
+      <c r="H16" s="12">
+        <v>5401.77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>20180</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="7"/>
+        <v>665</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="8"/>
+        <v>1695.7499999999998</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>44195</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>42040</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="9">C18-C16</f>
+        <v>440</v>
+      </c>
+      <c r="E18" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18:F19" si="10">D18*E18</f>
+        <v>2072.4</v>
+      </c>
+      <c r="G18" s="9">
+        <f>SUM(F18,F19)</f>
+        <v>2592.6</v>
+      </c>
+      <c r="H18" s="13">
+        <v>2592.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>20384</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="9"/>
+        <v>204</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="10"/>
+        <v>520.19999999999993</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/129ee.xlsx
+++ b/sputnik/personal/ee/129ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -474,10 +474,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -724,13 +724,11 @@
         <f t="shared" ref="F10:F11" si="4">D10*E10</f>
         <v>3169.83</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="11">
         <f>SUM(F10,F11)</f>
         <v>4141.38</v>
       </c>
-      <c r="H10" s="11">
-        <v>2021.13</v>
-      </c>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -877,7 +875,7 @@
         <f t="shared" ref="F16:F17" si="8">D16*E16</f>
         <v>5826.2699999999995</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="12">
         <f>SUM(F16,F17)</f>
         <v>7522.0199999999995</v>
       </c>
@@ -957,6 +955,169 @@
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>44236</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>43346</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="11">C20-C18</f>
+        <v>1306</v>
+      </c>
+      <c r="E20" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" ref="F20:F21" si="12">D20*E20</f>
+        <v>6151.26</v>
+      </c>
+      <c r="G20" s="9">
+        <f>SUM(F20,F21)</f>
+        <v>7727.16</v>
+      </c>
+      <c r="H20" s="13">
+        <v>7727.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>21002</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="11"/>
+        <v>618</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="12"/>
+        <v>1575.8999999999999</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>44270</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>44306</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="13">C22-C20</f>
+        <v>960</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" ref="F22:F23" si="14">D22*E22</f>
+        <v>4521.6000000000004</v>
+      </c>
+      <c r="G22" s="9">
+        <f>SUM(F22,F23)</f>
+        <v>4730.7000000000007</v>
+      </c>
+      <c r="H22" s="13">
+        <v>5750.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>21084</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="14"/>
+        <v>209.1</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>44306</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>45056</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:D25" si="15">C24-C22</f>
+        <v>750</v>
+      </c>
+      <c r="E24" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" ref="F24:F25" si="16">D24*E24</f>
+        <v>3532.5</v>
+      </c>
+      <c r="G24" s="9">
+        <f>SUM(F24,F25)</f>
+        <v>5513.85</v>
+      </c>
+      <c r="H24" s="13">
+        <v>4493.8500000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>21861</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="15"/>
+        <v>777</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="16"/>
+        <v>1981.35</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="1">
+        <f>SUM(G2:G25)</f>
+        <v>79515.689999999988</v>
+      </c>
+      <c r="H26" s="1">
+        <f>SUM(H2:H25)</f>
+        <v>79515.590000000011</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/129ee.xlsx
+++ b/sputnik/personal/ee/129ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -474,7 +474,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
@@ -1110,11 +1110,62 @@
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G26" s="1">
+      <c r="A26" s="10">
+        <v>44340</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>45500</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" ref="D26:D27" si="17">C26-C24</f>
+        <v>444</v>
+      </c>
+      <c r="E26" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" ref="F26:F27" si="18">D26*E26</f>
+        <v>2091.2399999999998</v>
+      </c>
+      <c r="G26" s="9">
+        <f>SUM(F26,F27)</f>
+        <v>2527.29</v>
+      </c>
+      <c r="H26" s="13">
+        <v>2527.29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>22032</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="17"/>
+        <v>171</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="18"/>
+        <v>436.04999999999995</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="1">
         <f>SUM(G2:G25)</f>
         <v>79515.689999999988</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H28" s="1">
         <f>SUM(H2:H25)</f>
         <v>79515.590000000011</v>
       </c>

--- a/sputnik/personal/ee/129ee.xlsx
+++ b/sputnik/personal/ee/129ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -474,10 +474,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1161,11 +1161,62 @@
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G28" s="1">
+      <c r="A28" s="10">
+        <v>44375</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>45900</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" ref="D28:D29" si="19">C28-C26</f>
+        <v>400</v>
+      </c>
+      <c r="E28" s="8">
+        <v>4.71</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" ref="F28:F29" si="20">D28*E28</f>
+        <v>1884</v>
+      </c>
+      <c r="G28" s="9">
+        <f>SUM(F28,F29)</f>
+        <v>2394</v>
+      </c>
+      <c r="H28" s="13">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>22232</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="19"/>
+        <v>200</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="20"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="1">
         <f>SUM(G2:G25)</f>
         <v>79515.689999999988</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H30" s="1">
         <f>SUM(H2:H25)</f>
         <v>79515.590000000011</v>
       </c>

--- a/sputnik/personal/ee/129ee.xlsx
+++ b/sputnik/personal/ee/129ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -474,10 +474,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1212,11 +1212,62 @@
       <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G30" s="1">
+      <c r="A30" s="10">
+        <v>44427</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>46006</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" ref="D30:D31" si="21">C30-C28</f>
+        <v>106</v>
+      </c>
+      <c r="E30" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" ref="F30:F31" si="22">D30*E30</f>
+        <v>525.76</v>
+      </c>
+      <c r="G30" s="9">
+        <f>SUM(F30,F31)</f>
+        <v>574</v>
+      </c>
+      <c r="H30" s="13">
+        <v>570.66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>22250</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="21"/>
+        <v>18</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="22"/>
+        <v>48.24</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="1">
         <f>SUM(G2:G25)</f>
         <v>79515.689999999988</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H32" s="1">
         <f>SUM(H2:H25)</f>
         <v>79515.590000000011</v>
       </c>

--- a/sputnik/personal/ee/129ee.xlsx
+++ b/sputnik/personal/ee/129ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -474,10 +474,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1263,13 +1263,64 @@
       <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G32" s="1">
-        <f>SUM(G2:G25)</f>
-        <v>79515.689999999988</v>
-      </c>
-      <c r="H32" s="1">
-        <f>SUM(H2:H25)</f>
-        <v>79515.590000000011</v>
+      <c r="A32" s="10">
+        <v>44473</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>46427</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" ref="D32:D33" si="23">C32-C30</f>
+        <v>421</v>
+      </c>
+      <c r="E32" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" ref="F32:F33" si="24">D32*E32</f>
+        <v>2088.16</v>
+      </c>
+      <c r="G32" s="9">
+        <f>SUM(F32,F33)</f>
+        <v>2691.16</v>
+      </c>
+      <c r="H32" s="13">
+        <v>2556.66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>22475</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="23"/>
+        <v>225</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="24"/>
+        <v>603</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="1">
+        <f>SUM(G2:G33)</f>
+        <v>87702.139999999985</v>
+      </c>
+      <c r="H34" s="1">
+        <f>SUM(H2:H33)</f>
+        <v>87564.200000000012</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/129ee.xlsx
+++ b/sputnik/personal/ee/129ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -55,7 +55,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +80,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -138,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -167,6 +174,8 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -474,10 +483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1314,13 +1323,121 @@
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G34" s="1">
-        <f>SUM(G2:G33)</f>
-        <v>87702.139999999985</v>
-      </c>
-      <c r="H34" s="1">
-        <f>SUM(H2:H33)</f>
-        <v>87564.200000000012</v>
+      <c r="A34" s="10">
+        <v>44503</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>46471</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" ref="D34:D35" si="25">C34-C32</f>
+        <v>44</v>
+      </c>
+      <c r="E34" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" ref="F34:F35" si="26">D34*E34</f>
+        <v>218.24</v>
+      </c>
+      <c r="G34" s="14">
+        <f>SUM(F34,F35)</f>
+        <v>636.32000000000005</v>
+      </c>
+      <c r="H34" s="15">
+        <v>1876.74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>22631</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="25"/>
+        <v>156</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="26"/>
+        <v>418.08000000000004</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>44543</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>47446</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" ref="D36:D37" si="27">C36-C34</f>
+        <v>975</v>
+      </c>
+      <c r="E36" s="8">
+        <v>4.96</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" ref="F36:F37" si="28">D36*E36</f>
+        <v>4836</v>
+      </c>
+      <c r="G36" s="14">
+        <f>SUM(F36,F37)</f>
+        <v>5824.92</v>
+      </c>
+      <c r="H36" s="15">
+        <v>7270.44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
+        <v>23000</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="27"/>
+        <v>369</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" si="28"/>
+        <v>988.92000000000007</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G38" s="1">
+        <f>SUM(G2:G37)</f>
+        <v>94163.37999999999</v>
+      </c>
+      <c r="H38" s="1">
+        <f>SUM(H2:H37)</f>
+        <v>96711.380000000019</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="1">
+        <f>SUM(H38,-G38)</f>
+        <v>2548.0000000000291</v>
       </c>
     </row>
   </sheetData>
